--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+75%.xlsx
@@ -67340,6 +67340,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>14.04133333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>443.7727777777778</v>
       </c>
@@ -67395,6 +67398,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>14.62166666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>453.1772222222222</v>
       </c>
@@ -67450,6 +67456,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.10183333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>437.9955555555555</v>
       </c>
@@ -67505,6 +67514,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.89633333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>433.2433333333333</v>
       </c>
@@ -67560,6 +67572,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.95316666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>435.283888888889</v>
       </c>
@@ -67615,6 +67630,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.25516666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>440.4683333333332</v>
       </c>
@@ -67670,6 +67688,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.73466666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>438.8727777777779</v>
       </c>
@@ -67725,6 +67746,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>14.51416666666667</v>
+      </c>
       <c r="C9" t="n">
         <v>447.1238888888889</v>
       </c>
@@ -67780,6 +67804,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.84766666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>457.8422222222223</v>
       </c>
@@ -67835,6 +67862,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.65783333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>446.1438888888889</v>
       </c>
@@ -67890,6 +67920,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.19933333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>433.6988888888889</v>
       </c>
@@ -67945,6 +67978,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.91833333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>458.6216666666667</v>
       </c>
@@ -68000,6 +68036,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.00566666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>438.5549999999999</v>
       </c>
@@ -68055,6 +68094,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>14.74816666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>460.1288888888889</v>
       </c>
@@ -68110,6 +68152,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.85316666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>436.458888888889</v>
       </c>
@@ -68165,6 +68210,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.4705</v>
+      </c>
       <c r="C17" t="n">
         <v>446.0822222222222</v>
       </c>
@@ -68220,6 +68268,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.462</v>
+      </c>
       <c r="C18" t="n">
         <v>435.6777777777777</v>
       </c>
@@ -68275,6 +68326,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.78233333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>445.6844444444445</v>
       </c>
@@ -68330,6 +68384,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>14.65933333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>453.6477777777777</v>
       </c>
@@ -68385,6 +68442,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.58116666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>451.79</v>
       </c>
@@ -68440,6 +68500,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.65083333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>441.8677777777779</v>
       </c>
@@ -68495,6 +68558,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.087</v>
+      </c>
       <c r="C23" t="n">
         <v>438.6333333333333</v>
       </c>
@@ -68550,6 +68616,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.14716666666667</v>
+      </c>
       <c r="C24" t="n">
         <v>452.8855555555556</v>
       </c>
@@ -68605,6 +68674,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.82916666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>425.3372222222222</v>
       </c>
@@ -68660,6 +68732,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.96933333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>445.5122222222222</v>
       </c>
@@ -68715,6 +68790,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.68183333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>433.186111111111</v>
       </c>
@@ -68770,6 +68848,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.18483333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>429.185</v>
       </c>
@@ -68825,6 +68906,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.973</v>
+      </c>
       <c r="C29" t="n">
         <v>440.2327777777778</v>
       </c>
@@ -68880,6 +68964,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.25716666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>432.8727777777778</v>
       </c>
@@ -68934,6 +69021,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.806</v>
       </c>
       <c r="C31" t="n">
         <v>446.1222222222222</v>
